--- a/data/trans_camb/P12B1_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,67</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 18,98</t>
+          <t>-6,32; 2,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 27,25</t>
+          <t>-6,38; 2,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 43,6</t>
+          <t>-5,56; 4,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 21,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 21,81</t>
+          <t>-1,91; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 16,13</t>
+          <t>-2,55; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 19,43</t>
+          <t>-1,82; 5,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 24,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 2,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 4,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>119,08%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>34,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 344,27</t>
+          <t>-83,75; 145,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 480,01</t>
+          <t>-80,35; 251,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 727,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 363,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 381,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 454,84</t>
+          <t>-54,68; 539,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 187,73</t>
+          <t>-54,9; 464,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 238,28</t>
+          <t>-65,65; 665,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 307,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-55,17; 137,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-51,61; 143,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-45,57; 239,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 23,36</t>
+          <t>-0,48; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 18,78</t>
+          <t>-1,15; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 36,75</t>
+          <t>0,31; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 39,54</t>
+          <t>-2,76; 0,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 11,55</t>
+          <t>-1,96; 1,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 15,19</t>
+          <t>-2,07; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 32,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 1,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 3,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>47,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>162,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>57,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 110,89</t>
+          <t>-28,47; 508,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 90,56</t>
+          <t>-53,68; 319,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 185,26</t>
+          <t>-8,31; 704,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,5; 60,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 113,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 223,87</t>
+          <t>-75,21; 60,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 55,63</t>
+          <t>-50,45; 119,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 66,39</t>
+          <t>-61,21; 121,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 150,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,4; 118,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 130,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,89; 198,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,29</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 50,54</t>
+          <t>-3,96; 0,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 30,37</t>
+          <t>-3,56; 1,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 56,72</t>
+          <t>-1,61; 4,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 19,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 21,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 40,12</t>
+          <t>-1,54; 1,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 25,25</t>
+          <t>-1,46; 1,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 17,47</t>
+          <t>-0,61; 3,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 37,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 0,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 0,87</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 3,19</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>-47,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-37,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>110,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-32,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,37%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>67,61%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 328,9</t>
+          <t>-88,91; 81,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 175,35</t>
+          <t>-81,64; 125,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 279,16</t>
+          <t>-50,5; 367,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 229,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 268,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 409,93</t>
+          <t>-78,73; 455,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 142,69</t>
+          <t>-71,4; 422,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 101,0</t>
+          <t>-44,0; 897,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 210,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-71,32; 82,55</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-63,31; 90,91</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 323,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 16,69</t>
+          <t>-2,0; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 14,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 30,04</t>
+          <t>-0,02; 5,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 9,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 20,82</t>
+          <t>-1,72; 1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 8,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 10,22</t>
+          <t>-0,19; 4,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 21,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 1,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 3,91</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>104,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>101,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>103,51%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 81,77</t>
+          <t>-81,72; 365,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 71,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 148,88</t>
+          <t>-7,78; 406,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 70,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 103,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 139,54</t>
+          <t>-66,37; 170,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 44,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 51,5</t>
+          <t>-12,44; 402,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,33; 118,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; 131,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>18,05; 290,82</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 1,27</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,24</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,38</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 0,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,57</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 2,41</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 0,76</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,12</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,41</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>80,75%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>30,12%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>71,38%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-41,01; 76,23</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,5; 74,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 202,98</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-38,37; 62,03</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 107,15</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 161,36</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-28,87; 44,26</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; 63,19</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>24,37; 137,79</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
